--- a/Traces/instant_5_clients.xlsx
+++ b/Traces/instant_5_clients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurent/Documents/Q2/LINGI2146/Project/src/Traces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7997317-D88F-DD42-8AC4-030F8F0D69FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A0A87F-6302-6B48-A61D-184BEE68DF05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15440" xr2:uid="{F8E3E98A-9FEC-384C-ABCA-646B06952F29}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="instant_5_clients" localSheetId="0">Sheet1!$A$2:$G$116</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{5D9E28F0-69C2-824F-9C48-A9F42DA5AF2C}" name="instant_5_clients" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/laurent/Documents/Q2/LINGI2146/Project/src/Traces/instant_5_clients.txt" decimal="," thousands="." space="1" consecutive="1">
+    <textPr sourceFile="/Users/laurent/Documents/Q2/LINGI2146/Project/src/Traces/instant_5_clients.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="30">
         <textField/>
         <textField/>
@@ -901,7 +901,7 @@
   <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1607,8 +1607,8 @@
         <v>147</v>
       </c>
       <c r="U11" s="1">
-        <f>SUM(N12:N291)/COUNT(N12:N291)</f>
-        <v>0.96612627388227101</v>
+        <f>SUM(N:N)/COUNT(N:N)</f>
+        <v>0.97758902809836634</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>148</v>
@@ -1676,8 +1676,8 @@
         <v>149</v>
       </c>
       <c r="U12" s="1">
-        <f>SUM(O13:O292)/COUNT(O13:O292)</f>
-        <v>7.2499324035644547E-2</v>
+        <f>SUM(O:O)/COUNT(O:O)</f>
+        <v>7.2425940773703831E-2</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>148</v>
@@ -1745,8 +1745,8 @@
         <v>150</v>
       </c>
       <c r="U13" s="1">
-        <f>SUM(P14:P293)/COUNT(P14:P293)</f>
-        <v>1.0943129660866486</v>
+        <f>SUM(P:P)/COUNT(P:P)</f>
+        <v>1.0739747980291199</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>148</v>
@@ -1814,8 +1814,8 @@
         <v>151</v>
       </c>
       <c r="U14" s="1">
-        <f>SUM(Q15:Q294)/COUNT(Q15:Q294)</f>
-        <v>0.42472681162308679</v>
+        <f>SUM(Q:Q)/COUNT(Q:Q)</f>
+        <v>0.45826564719460228</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>148</v>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="U16" s="1">
         <f>SUM(U11:U14)</f>
-        <v>2.5576653756276508</v>
+        <v>2.5822554140957923</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>153</v>
@@ -6433,39 +6433,39 @@
         <v>1105</v>
       </c>
       <c r="I95">
-        <f t="shared" ref="I94:I116" si="19">D95-D94</f>
+        <f t="shared" ref="I95:I116" si="19">D95-D94</f>
         <v>645</v>
       </c>
       <c r="J95">
-        <f t="shared" ref="J94:J116" si="20">E95-E94</f>
+        <f t="shared" ref="J95:J116" si="20">E95-E94</f>
         <v>163192</v>
       </c>
       <c r="K95">
-        <f t="shared" ref="K94:K116" si="21">F95-F94</f>
+        <f t="shared" ref="K95:K116" si="21">F95-F94</f>
         <v>0</v>
       </c>
       <c r="L95">
-        <f t="shared" ref="L94:L116" si="22">G95-G94</f>
+        <f t="shared" ref="L95:L116" si="22">G95-G94</f>
         <v>636</v>
       </c>
       <c r="N95">
-        <f t="shared" ref="N94:N116" si="23">I95*$U$1*$U$5/($U$6*$U$7)</f>
+        <f t="shared" ref="N95:N116" si="23">I95*$U$1*$U$5/($U$6*$U$7)</f>
         <v>0.1121978759765625</v>
       </c>
       <c r="O95">
-        <f t="shared" ref="O94:O116" si="24">J95*$U$2*$U$5/($U$6*$U$7)</f>
+        <f t="shared" ref="O95:O116" si="24">J95*$U$2*$U$5/($U$6*$U$7)</f>
         <v>7.4703369140625003E-2</v>
       </c>
       <c r="P95">
-        <f t="shared" ref="P94:P116" si="25">K95*$U$3*$U$5/($U$6*$U$7)</f>
+        <f t="shared" ref="P95:P116" si="25">K95*$U$3*$U$5/($U$6*$U$7)</f>
         <v>0</v>
       </c>
       <c r="Q95">
-        <f t="shared" ref="Q94:Q116" si="26">L95*$U$4*$U$5/($U$6*$U$7)</f>
+        <f t="shared" ref="Q95:Q116" si="26">L95*$U$4*$U$5/($U$6*$U$7)</f>
         <v>0.218935546875</v>
       </c>
       <c r="R95">
-        <f t="shared" ref="R94:R116" si="27">SUM(N95:Q95)</f>
+        <f t="shared" ref="R95:R116" si="27">SUM(N95:Q95)</f>
         <v>0.40583679199218747</v>
       </c>
     </row>
